--- a/oLMpics/gpt2-results/gpt2-seq-results.xlsx
+++ b/oLMpics/gpt2-results/gpt2-seq-results.xlsx
@@ -486,20 +486,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.5775 0.5375 0.47   0.445  0.38  ]</t>
+          <t>[0.575  0.535  0.47   0.4425 0.3775]</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>9.641403015234587</v>
+        <v>9.630403122303079</v>
       </c>
       <c r="G2" t="n">
-        <v>0.385585969847654</v>
+        <v>0.3836959687769693</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5784140301523458</v>
+        <v>0.5763040312230308</v>
       </c>
     </row>
   </sheetData>
